--- a/new/it-IT/new.xlsx
+++ b/new/it-IT/new.xlsx
@@ -72,7 +72,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="New Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>

--- a/new/it-IT/new.xlsx
+++ b/new/it-IT/new.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
